--- a/06.Brain_bdc.xlsx
+++ b/06.Brain_bdc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajou\Desktop\영원폴더\OneDrive_2021-11-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajouackr-my.sharepoint.com/personal/yw7148_ajou_ac_kr/Documents/4학년 2학기/프로젝트/Coding/Proccess/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_6FED4B0791B05FDFC7CF71F0AA16DDAB96C1BBF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E35C3E0-BA55-4ABB-8908-9DA7C713EF04}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Backlog'!$B$2:$I$189</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,12 +42,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>AsposeUser</author>
   </authors>
   <commentList>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,12 +64,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>AsposeUser</author>
   </authors>
   <commentList>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -85,12 +86,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>AsposeUser</author>
   </authors>
   <commentList>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -107,12 +108,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>AsposeUser</author>
   </authors>
   <commentList>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -129,12 +130,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>AsposeUser</author>
   </authors>
   <commentList>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -151,12 +152,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>AsposeUser</author>
   </authors>
   <commentList>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="296">
   <si>
     <t>Story
 ID</t>
@@ -9276,7 +9277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
@@ -12924,79 +12925,79 @@
                   <c:v>20.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>15.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>7.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>3.3999999999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13074,7 +13075,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20455,6 +20456,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -20490,6 +20508,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -20665,7 +20700,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S190"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
@@ -20673,18 +20708,18 @@
       <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="62.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="4" customWidth="1"/>
-    <col min="10" max="19" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="65.73046875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.73046875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.73046875" customWidth="1"/>
+    <col min="7" max="7" width="62.73046875" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" style="4" customWidth="1"/>
+    <col min="10" max="19" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" s="2" customFormat="1" ht="40.5" customHeight="1">
@@ -24152,7 +24187,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1390" yWindow="703" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Owner" prompt="Select the owner of the task">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Owner" prompt="Select the owner of the task" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Members!$B$4:$B$10</xm:f>
           </x14:formula1>
@@ -24165,39 +24200,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:X101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -26614,7 +26649,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E72" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"To Do,In Progress,Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26627,39 +26662,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:X101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -29064,7 +29099,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E72" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"To Do,In Progress,Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -29077,39 +29112,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:X102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -29452,10 +29487,14 @@
         <v>0.5</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
+        <v>275</v>
+      </c>
+      <c r="F24" s="53">
+        <v>44504</v>
+      </c>
+      <c r="G24" s="54">
+        <v>1</v>
+      </c>
       <c r="H24" s="35"/>
       <c r="I24" s="55">
         <f>WORKDAY($D$3,(J24-1),Holidays!$C$5:$C$60)</f>
@@ -29490,7 +29529,7 @@
       </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="57">
-        <v>44501</v>
+        <v>44504</v>
       </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
@@ -29508,7 +29547,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="61"/>
@@ -29548,7 +29587,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="63">
         <f>NETWORKDAYS($D$3,$R$24,Holidays!$C$5:$C$60)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
@@ -29625,10 +29664,14 @@
         <v>2</v>
       </c>
       <c r="E27" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F27" s="60">
+        <v>44503</v>
+      </c>
+      <c r="G27" s="61">
+        <v>3</v>
+      </c>
       <c r="H27" s="35"/>
       <c r="I27" s="55">
         <f>WORKDAY($D$3,(J27-1),Holidays!$C$5:$C$60)</f>
@@ -29680,10 +29723,14 @@
         <v>1</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F28" s="60">
+        <v>44503</v>
+      </c>
+      <c r="G28" s="61">
+        <v>2</v>
+      </c>
       <c r="H28" s="35"/>
       <c r="I28" s="55">
         <f>WORKDAY($D$3,(J28-1),Holidays!$C$5:$C$60)</f>
@@ -29735,10 +29782,14 @@
         <v>0.5</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F29" s="60">
+        <v>44502</v>
+      </c>
+      <c r="G29" s="61">
+        <v>1</v>
+      </c>
       <c r="H29" s="35"/>
       <c r="I29" s="55">
         <f>WORKDAY($D$3,(J29-1),Holidays!$C$5:$C$60)</f>
@@ -29790,7 +29841,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F30" s="60"/>
       <c r="G30" s="61"/>
@@ -29813,11 +29864,11 @@
       </c>
       <c r="M30" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>15.399999999999999</v>
       </c>
       <c r="N30" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O30" s="77">
         <f t="shared" si="4"/>
@@ -29825,7 +29876,7 @@
       </c>
       <c r="P30" s="78">
         <f t="shared" si="5"/>
-        <v>0.08</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
@@ -29868,11 +29919,11 @@
       </c>
       <c r="M31" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>7.3999999999999986</v>
       </c>
       <c r="N31" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O31" s="77">
         <f t="shared" si="4"/>
@@ -29880,7 +29931,7 @@
       </c>
       <c r="P31" s="78">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.54</v>
       </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
@@ -29923,11 +29974,11 @@
       </c>
       <c r="M32" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N32" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O32" s="77">
         <f t="shared" si="4"/>
@@ -29935,7 +29986,7 @@
       </c>
       <c r="P32" s="78">
         <f t="shared" si="5"/>
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
@@ -29955,10 +30006,14 @@
         <v>1</v>
       </c>
       <c r="E33" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F33" s="60">
+        <v>44504</v>
+      </c>
+      <c r="G33" s="61">
+        <v>1</v>
+      </c>
       <c r="H33" s="35"/>
       <c r="I33" s="55">
         <f>WORKDAY($D$3,(J33-1),Holidays!$C$5:$C$60)</f>
@@ -29978,11 +30033,11 @@
       </c>
       <c r="M33" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N33" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O33" s="77">
         <f t="shared" si="4"/>
@@ -29990,7 +30045,7 @@
       </c>
       <c r="P33" s="78">
         <f t="shared" si="5"/>
-        <v>0.06</v>
+        <v>0.53</v>
       </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
@@ -30010,10 +30065,14 @@
         <v>1</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F34" s="60">
+        <v>44504</v>
+      </c>
+      <c r="G34" s="61">
+        <v>1</v>
+      </c>
       <c r="H34" s="35"/>
       <c r="I34" s="55">
         <f>WORKDAY($D$3,(J34-1),Holidays!$C$5:$C$60)</f>
@@ -30033,11 +30092,11 @@
       </c>
       <c r="M34" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N34" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O34" s="77">
         <f t="shared" si="4"/>
@@ -30045,7 +30104,7 @@
       </c>
       <c r="P34" s="78">
         <f t="shared" si="5"/>
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
@@ -30065,7 +30124,7 @@
         <v>0.5</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
@@ -30088,11 +30147,11 @@
       </c>
       <c r="M35" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N35" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O35" s="77">
         <f t="shared" si="4"/>
@@ -30100,7 +30159,7 @@
       </c>
       <c r="P35" s="78">
         <f t="shared" si="5"/>
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
@@ -30143,11 +30202,11 @@
       </c>
       <c r="M36" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N36" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O36" s="77">
         <f t="shared" si="4"/>
@@ -30155,7 +30214,7 @@
       </c>
       <c r="P36" s="78">
         <f t="shared" si="5"/>
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
@@ -30175,10 +30234,14 @@
         <v>0.5</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F37" s="60">
+        <v>44503</v>
+      </c>
+      <c r="G37" s="61">
+        <v>1</v>
+      </c>
       <c r="H37" s="35"/>
       <c r="I37" s="55">
         <f>WORKDAY($D$3,(J37-1),Holidays!$C$5:$C$60)</f>
@@ -30198,11 +30261,11 @@
       </c>
       <c r="M37" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N37" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O37" s="77">
         <f t="shared" si="4"/>
@@ -30210,7 +30273,7 @@
       </c>
       <c r="P37" s="78">
         <f t="shared" si="5"/>
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
@@ -30253,11 +30316,11 @@
       </c>
       <c r="M38" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N38" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O38" s="77">
         <f t="shared" si="4"/>
@@ -30265,7 +30328,7 @@
       </c>
       <c r="P38" s="78">
         <f t="shared" si="5"/>
-        <v>0.04</v>
+        <v>0.34</v>
       </c>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
@@ -30284,10 +30347,14 @@
         <v>0.5</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F39" s="60">
+        <v>44504</v>
+      </c>
+      <c r="G39" s="61">
+        <v>1</v>
+      </c>
       <c r="H39" s="35"/>
       <c r="I39" s="55">
         <f>WORKDAY($D$3,(J39-1),Holidays!$C$5:$C$60)</f>
@@ -30307,11 +30374,11 @@
       </c>
       <c r="M39" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N39" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O39" s="77">
         <f t="shared" si="4"/>
@@ -30319,7 +30386,7 @@
       </c>
       <c r="P39" s="78">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="T39" s="35"/>
     </row>
@@ -30363,11 +30430,11 @@
       </c>
       <c r="M40" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N40" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O40" s="77">
         <f t="shared" si="4"/>
@@ -30375,7 +30442,7 @@
       </c>
       <c r="P40" s="78">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="15" customHeight="1">
@@ -30418,11 +30485,11 @@
       </c>
       <c r="M41" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N41" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O41" s="77">
         <f t="shared" si="4"/>
@@ -30430,7 +30497,7 @@
       </c>
       <c r="P41" s="78">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="15" customHeight="1">
@@ -30473,11 +30540,11 @@
       </c>
       <c r="M42" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N42" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O42" s="77">
         <f t="shared" si="4"/>
@@ -30485,7 +30552,7 @@
       </c>
       <c r="P42" s="78">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="15" customHeight="1">
@@ -30528,11 +30595,11 @@
       </c>
       <c r="M43" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N43" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O43" s="77">
         <f t="shared" si="4"/>
@@ -30540,7 +30607,7 @@
       </c>
       <c r="P43" s="78">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="15" customHeight="1">
@@ -30556,13 +30623,13 @@
         <v>2</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F44" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G44" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F44" s="60">
+        <v>44502</v>
+      </c>
+      <c r="G44" s="61">
+        <v>3</v>
       </c>
       <c r="H44" s="35"/>
       <c r="I44" s="55">
@@ -30583,11 +30650,11 @@
       </c>
       <c r="M44" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N44" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O44" s="77">
         <f t="shared" si="4"/>
@@ -30595,7 +30662,7 @@
       </c>
       <c r="P44" s="78">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="15" customHeight="1">
@@ -30611,13 +30678,13 @@
         <v>0.5</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F45" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F45" s="60">
+        <v>44502</v>
+      </c>
+      <c r="G45" s="61">
+        <v>1</v>
       </c>
       <c r="H45" s="35"/>
       <c r="I45" s="55">
@@ -30638,11 +30705,11 @@
       </c>
       <c r="M45" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N45" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O45" s="77">
         <f t="shared" si="4"/>
@@ -30650,7 +30717,7 @@
       </c>
       <c r="P45" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1">
@@ -30666,13 +30733,13 @@
         <v>1</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F46" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G46" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F46" s="60">
+        <v>44503</v>
+      </c>
+      <c r="G46" s="61">
+        <v>1</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="55">
@@ -30693,11 +30760,11 @@
       </c>
       <c r="M46" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N46" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O46" s="77">
         <f t="shared" si="4"/>
@@ -30705,7 +30772,7 @@
       </c>
       <c r="P46" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="15" customHeight="1">
@@ -30721,13 +30788,13 @@
         <v>0.5</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F47" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F47" s="60">
+        <v>44503</v>
+      </c>
+      <c r="G47" s="61">
+        <v>1</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="55">
@@ -30748,11 +30815,11 @@
       </c>
       <c r="M47" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N47" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O47" s="77">
         <f t="shared" si="4"/>
@@ -30760,7 +30827,7 @@
       </c>
       <c r="P47" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="15" customHeight="1">
@@ -30803,11 +30870,11 @@
       </c>
       <c r="M48" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N48" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O48" s="77">
         <f t="shared" si="4"/>
@@ -30815,7 +30882,7 @@
       </c>
       <c r="P48" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15" customHeight="1">
@@ -30856,11 +30923,11 @@
       </c>
       <c r="M49" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N49" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O49" s="77">
         <f t="shared" si="4"/>
@@ -30868,7 +30935,7 @@
       </c>
       <c r="P49" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="15" customHeight="1">
@@ -30909,11 +30976,11 @@
       </c>
       <c r="M50" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N50" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O50" s="77">
         <f t="shared" si="4"/>
@@ -30921,7 +30988,7 @@
       </c>
       <c r="P50" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="15" customHeight="1">
@@ -30962,11 +31029,11 @@
       </c>
       <c r="M51" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N51" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O51" s="77">
         <f t="shared" si="4"/>
@@ -30974,7 +31041,7 @@
       </c>
       <c r="P51" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="15" customHeight="1">
@@ -31015,11 +31082,11 @@
       </c>
       <c r="M52" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N52" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O52" s="77">
         <f t="shared" si="4"/>
@@ -31027,7 +31094,7 @@
       </c>
       <c r="P52" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1">
@@ -31068,11 +31135,11 @@
       </c>
       <c r="M53" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N53" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O53" s="77">
         <f t="shared" si="4"/>
@@ -31080,7 +31147,7 @@
       </c>
       <c r="P53" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="15" customHeight="1">
@@ -31121,11 +31188,11 @@
       </c>
       <c r="M54" s="77">
         <f t="shared" si="2"/>
-        <v>20.399999999999999</v>
+        <v>3.3999999999999986</v>
       </c>
       <c r="N54" s="77">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="O54" s="77">
         <f t="shared" si="4"/>
@@ -31133,7 +31200,7 @@
       </c>
       <c r="P54" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="15" customHeight="1">
@@ -31599,7 +31666,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E73" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"To Do,In Progress,Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31612,39 +31679,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:X101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -34059,7 +34126,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E72" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"To Do,In Progress,Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -34072,39 +34139,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:X101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -36517,7 +36584,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E72" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"To Do,In Progress,Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36530,39 +36597,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:X101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -38951,7 +39018,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E24:E72" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"To Do,In Progress,Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -38964,17 +39031,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="22.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="16.149999999999999" customHeight="1"/>
@@ -39252,7 +39319,7 @@
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
     </row>
-    <row r="60" spans="2:3" ht="14.25" thickBot="1">
+    <row r="60" spans="2:3" ht="16.149999999999999" thickBot="1">
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
     </row>
@@ -39266,18 +39333,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="79" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="17"/>
+    <col min="1" max="1" width="7.265625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" style="79" customWidth="1"/>
+    <col min="3" max="4" width="9.1328125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="15" customHeight="1"/>

--- a/06.Brain_bdc.xlsx
+++ b/06.Brain_bdc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajouackr-my.sharepoint.com/personal/yw7148_ajou_ac_kr/Documents/4학년 2학기/프로젝트/Coding/Proccess/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="11_6FED4B0791B05FDFC7CF71F0AA16DDAB96C1BBF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E35C3E0-BA55-4ABB-8908-9DA7C713EF04}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_6FED4B0791B05FDFC7CF71F0AA16DDAB96C1BBF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2710531-164E-4981-9E21-8E89121C6E45}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="305">
   <si>
     <t>Story
 ID</t>
@@ -9272,6 +9272,33 @@
   <si>
     <t>Last Member</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 알림 기능 개발</t>
+  </si>
+  <si>
+    <t>관리비 금액화면 UI 설계</t>
+  </si>
+  <si>
+    <t xml:space="preserve">결제 기능 테스트 </t>
+  </si>
+  <si>
+    <t>차량 조회 UI 설계</t>
+  </si>
+  <si>
+    <t>차량 정보 UI 설계</t>
+  </si>
+  <si>
+    <t>관리비청구 알림</t>
+  </si>
+  <si>
+    <t>입주민 정보 입력</t>
+  </si>
+  <si>
+    <t>입주민 등록</t>
+  </si>
+  <si>
+    <t>민원 작성 UI 설계</t>
   </si>
 </sst>
 </file>
@@ -12934,70 +12961,70 @@
                   <c:v>3.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.3999999999999986</c:v>
+                  <c:v>1.3999999999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13075,7 +13102,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13673,34 +13700,34 @@
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>22.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -13908,94 +13935,94 @@
                 <c:formatCode>0.0_);[Red]\(0.0\)</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20704,22 +20731,22 @@
   <dimension ref="B2:S190"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" customWidth="1"/>
-    <col min="2" max="2" width="6.73046875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="65.73046875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.73046875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.73046875" customWidth="1"/>
-    <col min="7" max="7" width="62.73046875" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" style="4" customWidth="1"/>
-    <col min="10" max="19" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="62.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="4" customWidth="1"/>
+    <col min="10" max="19" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" s="2" customFormat="1" ht="40.5" customHeight="1">
@@ -24207,32 +24234,32 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.1328125" customWidth="1"/>
-    <col min="25" max="31" width="17.1328125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="25" max="31" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -26669,32 +26696,32 @@
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.1328125" customWidth="1"/>
-    <col min="25" max="31" width="17.1328125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="25" max="31" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -29115,36 +29142,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:X102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.1328125" customWidth="1"/>
-    <col min="25" max="31" width="17.1328125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="25" max="31" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -29529,7 +29556,7 @@
       </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="57">
-        <v>44504</v>
+        <v>44505</v>
       </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
@@ -29547,10 +29574,14 @@
         <v>1</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F25" s="60">
+        <v>44505</v>
+      </c>
+      <c r="G25" s="61">
+        <v>1</v>
+      </c>
       <c r="H25" s="35"/>
       <c r="I25" s="55">
         <f>WORKDAY($D$3,(J25-1),Holidays!$C$5:$C$60)</f>
@@ -29587,7 +29618,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="63">
         <f>NETWORKDAYS($D$3,$R$24,Holidays!$C$5:$C$60)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
@@ -29896,7 +29927,7 @@
         <v>1.5</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="61"/>
@@ -29951,10 +29982,14 @@
         <v>0.5</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F32" s="60">
+        <v>44505</v>
+      </c>
+      <c r="G32" s="61">
+        <v>1</v>
+      </c>
       <c r="H32" s="35"/>
       <c r="I32" s="55">
         <f>WORKDAY($D$3,(J32-1),Holidays!$C$5:$C$60)</f>
@@ -30033,11 +30068,11 @@
       </c>
       <c r="M33" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N33" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O33" s="77">
         <f t="shared" si="4"/>
@@ -30045,7 +30080,7 @@
       </c>
       <c r="P33" s="78">
         <f t="shared" si="5"/>
-        <v>0.53</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
@@ -30092,11 +30127,11 @@
       </c>
       <c r="M34" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N34" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O34" s="77">
         <f t="shared" si="4"/>
@@ -30104,7 +30139,7 @@
       </c>
       <c r="P34" s="78">
         <f t="shared" si="5"/>
-        <v>0.48</v>
+        <v>0.53</v>
       </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
@@ -30147,11 +30182,11 @@
       </c>
       <c r="M35" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N35" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O35" s="77">
         <f t="shared" si="4"/>
@@ -30159,7 +30194,7 @@
       </c>
       <c r="P35" s="78">
         <f t="shared" si="5"/>
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
@@ -30179,7 +30214,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="61"/>
@@ -30202,11 +30237,11 @@
       </c>
       <c r="M36" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N36" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O36" s="77">
         <f t="shared" si="4"/>
@@ -30214,7 +30249,7 @@
       </c>
       <c r="P36" s="78">
         <f t="shared" si="5"/>
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
@@ -30261,11 +30296,11 @@
       </c>
       <c r="M37" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N37" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O37" s="77">
         <f t="shared" si="4"/>
@@ -30273,7 +30308,7 @@
       </c>
       <c r="P37" s="78">
         <f t="shared" si="5"/>
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="Q37" s="35"/>
       <c r="R37" s="35"/>
@@ -30316,11 +30351,11 @@
       </c>
       <c r="M38" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N38" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O38" s="77">
         <f t="shared" si="4"/>
@@ -30328,7 +30363,7 @@
       </c>
       <c r="P38" s="78">
         <f t="shared" si="5"/>
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
@@ -30374,11 +30409,11 @@
       </c>
       <c r="M39" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N39" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O39" s="77">
         <f t="shared" si="4"/>
@@ -30386,7 +30421,7 @@
       </c>
       <c r="P39" s="78">
         <f t="shared" si="5"/>
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="T39" s="35"/>
     </row>
@@ -30430,11 +30465,11 @@
       </c>
       <c r="M40" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N40" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O40" s="77">
         <f t="shared" si="4"/>
@@ -30442,7 +30477,7 @@
       </c>
       <c r="P40" s="78">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="15" customHeight="1">
@@ -30458,7 +30493,7 @@
         <v>0.5</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F41" s="60" t="s">
         <v>276</v>
@@ -30485,11 +30520,11 @@
       </c>
       <c r="M41" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N41" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O41" s="77">
         <f t="shared" si="4"/>
@@ -30497,7 +30532,7 @@
       </c>
       <c r="P41" s="78">
         <f t="shared" si="5"/>
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="15" customHeight="1">
@@ -30540,11 +30575,11 @@
       </c>
       <c r="M42" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N42" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O42" s="77">
         <f t="shared" si="4"/>
@@ -30552,7 +30587,7 @@
       </c>
       <c r="P42" s="78">
         <f t="shared" si="5"/>
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="15" customHeight="1">
@@ -30595,11 +30630,11 @@
       </c>
       <c r="M43" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N43" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O43" s="77">
         <f t="shared" si="4"/>
@@ -30607,7 +30642,7 @@
       </c>
       <c r="P43" s="78">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="15" customHeight="1">
@@ -30650,11 +30685,11 @@
       </c>
       <c r="M44" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N44" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O44" s="77">
         <f t="shared" si="4"/>
@@ -30662,7 +30697,7 @@
       </c>
       <c r="P44" s="78">
         <f t="shared" si="5"/>
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="15" customHeight="1">
@@ -30705,11 +30740,11 @@
       </c>
       <c r="M45" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N45" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O45" s="77">
         <f t="shared" si="4"/>
@@ -30717,7 +30752,7 @@
       </c>
       <c r="P45" s="78">
         <f t="shared" si="5"/>
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1">
@@ -30760,11 +30795,11 @@
       </c>
       <c r="M46" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N46" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O46" s="77">
         <f t="shared" si="4"/>
@@ -30772,7 +30807,7 @@
       </c>
       <c r="P46" s="78">
         <f t="shared" si="5"/>
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="15" customHeight="1">
@@ -30815,11 +30850,11 @@
       </c>
       <c r="M47" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N47" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O47" s="77">
         <f t="shared" si="4"/>
@@ -30827,7 +30862,7 @@
       </c>
       <c r="P47" s="78">
         <f t="shared" si="5"/>
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="15" customHeight="1">
@@ -30870,11 +30905,11 @@
       </c>
       <c r="M48" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N48" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O48" s="77">
         <f t="shared" si="4"/>
@@ -30882,7 +30917,7 @@
       </c>
       <c r="P48" s="78">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15" customHeight="1">
@@ -30923,11 +30958,11 @@
       </c>
       <c r="M49" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N49" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O49" s="77">
         <f t="shared" si="4"/>
@@ -30935,7 +30970,7 @@
       </c>
       <c r="P49" s="78">
         <f t="shared" si="5"/>
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="15" customHeight="1">
@@ -30976,11 +31011,11 @@
       </c>
       <c r="M50" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N50" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O50" s="77">
         <f t="shared" si="4"/>
@@ -30988,7 +31023,7 @@
       </c>
       <c r="P50" s="78">
         <f t="shared" si="5"/>
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="15" customHeight="1">
@@ -31029,11 +31064,11 @@
       </c>
       <c r="M51" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N51" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O51" s="77">
         <f t="shared" si="4"/>
@@ -31041,7 +31076,7 @@
       </c>
       <c r="P51" s="78">
         <f t="shared" si="5"/>
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="15" customHeight="1">
@@ -31082,11 +31117,11 @@
       </c>
       <c r="M52" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N52" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O52" s="77">
         <f t="shared" si="4"/>
@@ -31094,7 +31129,7 @@
       </c>
       <c r="P52" s="78">
         <f t="shared" si="5"/>
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1">
@@ -31135,11 +31170,11 @@
       </c>
       <c r="M53" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N53" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O53" s="77">
         <f t="shared" si="4"/>
@@ -31147,7 +31182,7 @@
       </c>
       <c r="P53" s="78">
         <f t="shared" si="5"/>
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="15" customHeight="1">
@@ -31188,11 +31223,11 @@
       </c>
       <c r="M54" s="77">
         <f t="shared" si="2"/>
-        <v>3.3999999999999986</v>
+        <v>1.3999999999999986</v>
       </c>
       <c r="N54" s="77">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O54" s="77">
         <f t="shared" si="4"/>
@@ -31200,7 +31235,7 @@
       </c>
       <c r="P54" s="78">
         <f t="shared" si="5"/>
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="15" customHeight="1">
@@ -31682,36 +31717,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.1328125" customWidth="1"/>
-    <col min="25" max="31" width="17.1328125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="25" max="31" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -31792,7 +31827,7 @@
         <v>253</v>
       </c>
       <c r="D6" s="38">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -31837,7 +31872,7 @@
       </c>
       <c r="D9" s="39">
         <f>ROUNDDOWN(D6*D8,1)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="35"/>
@@ -31852,7 +31887,7 @@
       </c>
       <c r="D10" s="39">
         <f>(-1*D9)/D7</f>
-        <v>-2</v>
+        <v>-2.8</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="35"/>
@@ -31957,7 +31992,7 @@
       </c>
       <c r="D20" s="46">
         <f>SUM(D24:D72)</f>
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
@@ -31972,7 +32007,7 @@
       </c>
       <c r="D21" s="46">
         <f>$D$9-$D$20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="35"/>
@@ -32068,15 +32103,15 @@
       </c>
       <c r="K24" s="39">
         <f t="shared" ref="K24:K53" si="0">ROUND($D$9+($J24-1)*$D$10,1)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L24" s="77">
         <f t="shared" ref="L24:L53" si="1">IFERROR(IF(K24&gt;$D$9, $D$9, IF(K24&lt;0,0,K24)),0)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M24" s="77">
         <f t="shared" ref="M24:M53" si="2">$D$9-N24</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N24" s="77">
         <f t="shared" ref="N24:N53" si="3">SUMIF($F$24:$F$72,"&lt;"&amp;I24,$G$24:$G$72)</f>
@@ -32125,19 +32160,19 @@
       </c>
       <c r="K25" s="62">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>25.2</v>
       </c>
       <c r="L25" s="77">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>25.2</v>
       </c>
       <c r="M25" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N25" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O25" s="77">
         <f t="shared" si="4"/>
@@ -32145,7 +32180,7 @@
       </c>
       <c r="P25" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="Q25" s="35"/>
       <c r="R25" s="63">
@@ -32168,10 +32203,14 @@
         <v>0.5</v>
       </c>
       <c r="E26" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F26" s="60">
+        <v>44508</v>
+      </c>
+      <c r="G26" s="61">
+        <v>0.5</v>
+      </c>
       <c r="H26" s="35"/>
       <c r="I26" s="55">
         <f>WORKDAY($D$3,(J26-1),Holidays!$C$5:$C$60)</f>
@@ -32183,19 +32222,19 @@
       </c>
       <c r="K26" s="62">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>22.4</v>
       </c>
       <c r="L26" s="77">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>22.4</v>
       </c>
       <c r="M26" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N26" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O26" s="77">
         <f t="shared" si="4"/>
@@ -32203,7 +32242,7 @@
       </c>
       <c r="P26" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
@@ -32238,19 +32277,19 @@
       </c>
       <c r="K27" s="62">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L27" s="77">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="M27" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N27" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O27" s="77">
         <f t="shared" si="4"/>
@@ -32258,7 +32297,7 @@
       </c>
       <c r="P27" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
@@ -32293,19 +32332,19 @@
       </c>
       <c r="K28" s="62">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16.8</v>
       </c>
       <c r="L28" s="77">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16.8</v>
       </c>
       <c r="M28" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N28" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O28" s="77">
         <f t="shared" si="4"/>
@@ -32313,7 +32352,7 @@
       </c>
       <c r="P28" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
@@ -32348,19 +32387,19 @@
       </c>
       <c r="K29" s="62">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L29" s="77">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M29" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N29" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O29" s="77">
         <f t="shared" si="4"/>
@@ -32368,7 +32407,7 @@
       </c>
       <c r="P29" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
@@ -32403,19 +32442,19 @@
       </c>
       <c r="K30" s="62">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11.2</v>
       </c>
       <c r="L30" s="77">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11.2</v>
       </c>
       <c r="M30" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N30" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O30" s="77">
         <f t="shared" si="4"/>
@@ -32423,7 +32462,7 @@
       </c>
       <c r="P30" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
@@ -32458,19 +32497,19 @@
       </c>
       <c r="K31" s="62">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="L31" s="77">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8.4</v>
       </c>
       <c r="M31" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N31" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O31" s="77">
         <f t="shared" si="4"/>
@@ -32478,7 +32517,7 @@
       </c>
       <c r="P31" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
@@ -32513,19 +32552,19 @@
       </c>
       <c r="K32" s="62">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="L32" s="77">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="M32" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N32" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O32" s="77">
         <f t="shared" si="4"/>
@@ -32533,7 +32572,7 @@
       </c>
       <c r="P32" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
@@ -32568,19 +32607,19 @@
       </c>
       <c r="K33" s="62">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L33" s="77">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="M33" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N33" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O33" s="77">
         <f t="shared" si="4"/>
@@ -32588,7 +32627,7 @@
       </c>
       <c r="P33" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
@@ -32631,11 +32670,11 @@
       </c>
       <c r="M34" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N34" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O34" s="77">
         <f t="shared" si="4"/>
@@ -32643,7 +32682,7 @@
       </c>
       <c r="P34" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
@@ -32678,7 +32717,7 @@
       </c>
       <c r="K35" s="62">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>-2.8</v>
       </c>
       <c r="L35" s="77">
         <f t="shared" si="1"/>
@@ -32686,11 +32725,11 @@
       </c>
       <c r="M35" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N35" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O35" s="77">
         <f t="shared" si="4"/>
@@ -32698,7 +32737,7 @@
       </c>
       <c r="P35" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
@@ -32733,7 +32772,7 @@
       </c>
       <c r="K36" s="62">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>-5.6</v>
       </c>
       <c r="L36" s="77">
         <f t="shared" si="1"/>
@@ -32741,11 +32780,11 @@
       </c>
       <c r="M36" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N36" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O36" s="77">
         <f t="shared" si="4"/>
@@ -32753,7 +32792,7 @@
       </c>
       <c r="P36" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
@@ -32788,7 +32827,7 @@
       </c>
       <c r="K37" s="62">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>-8.4</v>
       </c>
       <c r="L37" s="77">
         <f t="shared" si="1"/>
@@ -32796,11 +32835,11 @@
       </c>
       <c r="M37" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N37" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O37" s="77">
         <f t="shared" si="4"/>
@@ -32808,7 +32847,7 @@
       </c>
       <c r="P37" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
@@ -32842,7 +32881,7 @@
       </c>
       <c r="K38" s="62">
         <f t="shared" si="0"/>
-        <v>-8</v>
+        <v>-11.2</v>
       </c>
       <c r="L38" s="77">
         <f t="shared" si="1"/>
@@ -32850,11 +32889,11 @@
       </c>
       <c r="M38" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N38" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O38" s="77">
         <f t="shared" si="4"/>
@@ -32862,7 +32901,7 @@
       </c>
       <c r="P38" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T38" s="35"/>
     </row>
@@ -32898,7 +32937,7 @@
       </c>
       <c r="K39" s="62">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="L39" s="77">
         <f t="shared" si="1"/>
@@ -32906,11 +32945,11 @@
       </c>
       <c r="M39" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N39" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O39" s="77">
         <f t="shared" si="4"/>
@@ -32918,7 +32957,7 @@
       </c>
       <c r="P39" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1">
@@ -32953,7 +32992,7 @@
       </c>
       <c r="K40" s="62">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>-16.8</v>
       </c>
       <c r="L40" s="77">
         <f t="shared" si="1"/>
@@ -32961,11 +33000,11 @@
       </c>
       <c r="M40" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N40" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O40" s="77">
         <f t="shared" si="4"/>
@@ -32973,7 +33012,7 @@
       </c>
       <c r="P40" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="15" customHeight="1">
@@ -33008,7 +33047,7 @@
       </c>
       <c r="K41" s="62">
         <f t="shared" si="0"/>
-        <v>-14</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="L41" s="77">
         <f t="shared" si="1"/>
@@ -33016,11 +33055,11 @@
       </c>
       <c r="M41" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N41" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O41" s="77">
         <f t="shared" si="4"/>
@@ -33028,7 +33067,7 @@
       </c>
       <c r="P41" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="15" customHeight="1">
@@ -33063,7 +33102,7 @@
       </c>
       <c r="K42" s="62">
         <f t="shared" si="0"/>
-        <v>-16</v>
+        <v>-22.4</v>
       </c>
       <c r="L42" s="77">
         <f t="shared" si="1"/>
@@ -33071,11 +33110,11 @@
       </c>
       <c r="M42" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N42" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O42" s="77">
         <f t="shared" si="4"/>
@@ -33083,7 +33122,7 @@
       </c>
       <c r="P42" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="15" customHeight="1">
@@ -33118,7 +33157,7 @@
       </c>
       <c r="K43" s="62">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-25.2</v>
       </c>
       <c r="L43" s="77">
         <f t="shared" si="1"/>
@@ -33126,11 +33165,11 @@
       </c>
       <c r="M43" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N43" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O43" s="77">
         <f t="shared" si="4"/>
@@ -33138,28 +33177,24 @@
       </c>
       <c r="P43" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="15" customHeight="1">
-      <c r="B44" s="58"/>
-      <c r="C44" s="50" t="str">
-        <f>IFERROR(VLOOKUP(B44,'Product Backlog'!$E$3:$H$190,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D44" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B44,'Product Backlog'!$E$3:$H$190,4,FALSE),"")</f>
-        <v/>
+      <c r="B44" s="58">
+        <v>8.02</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="D44" s="51">
+        <v>1</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="F44" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G44" s="61" t="s">
-        <v>276</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F44" s="60"/>
+      <c r="G44" s="61"/>
       <c r="H44" s="35"/>
       <c r="I44" s="55">
         <f>WORKDAY($D$3,(J44-1),Holidays!$C$5:$C$60)</f>
@@ -33171,7 +33206,7 @@
       </c>
       <c r="K44" s="62">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-28</v>
       </c>
       <c r="L44" s="77">
         <f t="shared" si="1"/>
@@ -33179,11 +33214,11 @@
       </c>
       <c r="M44" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N44" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O44" s="77">
         <f t="shared" si="4"/>
@@ -33191,28 +33226,24 @@
       </c>
       <c r="P44" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="15" customHeight="1">
-      <c r="B45" s="58"/>
-      <c r="C45" s="50" t="str">
-        <f>IFERROR(VLOOKUP(B45,'Product Backlog'!$E$3:$H$190,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D45" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B45,'Product Backlog'!$E$3:$H$190,4,FALSE),"")</f>
-        <v/>
+      <c r="B45" s="58">
+        <v>9.01</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="D45" s="51">
+        <v>1.5</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="F45" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G45" s="61" t="s">
-        <v>276</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="35"/>
       <c r="I45" s="55">
         <f>WORKDAY($D$3,(J45-1),Holidays!$C$5:$C$60)</f>
@@ -33224,7 +33255,7 @@
       </c>
       <c r="K45" s="62">
         <f t="shared" si="0"/>
-        <v>-22</v>
+        <v>-30.8</v>
       </c>
       <c r="L45" s="77">
         <f t="shared" si="1"/>
@@ -33232,11 +33263,11 @@
       </c>
       <c r="M45" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N45" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O45" s="77">
         <f t="shared" si="4"/>
@@ -33244,28 +33275,24 @@
       </c>
       <c r="P45" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1">
-      <c r="B46" s="58"/>
-      <c r="C46" s="50" t="str">
-        <f>IFERROR(VLOOKUP(B46,'Product Backlog'!$E$3:$H$190,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D46" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B46,'Product Backlog'!$E$3:$H$190,4,FALSE),"")</f>
-        <v/>
+      <c r="B46" s="58">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="D46" s="51">
+        <v>0.5</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="F46" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G46" s="61" t="s">
-        <v>276</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F46" s="60"/>
+      <c r="G46" s="61"/>
       <c r="H46" s="35"/>
       <c r="I46" s="55">
         <f>WORKDAY($D$3,(J46-1),Holidays!$C$5:$C$60)</f>
@@ -33277,7 +33304,7 @@
       </c>
       <c r="K46" s="62">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>-33.6</v>
       </c>
       <c r="L46" s="77">
         <f t="shared" si="1"/>
@@ -33285,11 +33312,11 @@
       </c>
       <c r="M46" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N46" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O46" s="77">
         <f t="shared" si="4"/>
@@ -33297,28 +33324,24 @@
       </c>
       <c r="P46" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="15" customHeight="1">
-      <c r="B47" s="58"/>
-      <c r="C47" s="50" t="str">
-        <f>IFERROR(VLOOKUP(B47,'Product Backlog'!$E$3:$H$190,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D47" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B47,'Product Backlog'!$E$3:$H$190,4,FALSE),"")</f>
-        <v/>
+      <c r="B47" s="58">
+        <v>11.01</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" s="51">
+        <v>1</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="F47" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G47" s="61" t="s">
-        <v>276</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="F47" s="60"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="35"/>
       <c r="I47" s="55">
         <f>WORKDAY($D$3,(J47-1),Holidays!$C$5:$C$60)</f>
@@ -33330,7 +33353,7 @@
       </c>
       <c r="K47" s="62">
         <f t="shared" si="0"/>
-        <v>-26</v>
+        <v>-36.4</v>
       </c>
       <c r="L47" s="77">
         <f t="shared" si="1"/>
@@ -33338,11 +33361,11 @@
       </c>
       <c r="M47" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N47" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O47" s="77">
         <f t="shared" si="4"/>
@@ -33350,28 +33373,24 @@
       </c>
       <c r="P47" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="15" customHeight="1">
-      <c r="B48" s="58"/>
-      <c r="C48" s="50" t="str">
-        <f>IFERROR(VLOOKUP(B48,'Product Backlog'!$E$3:$H$190,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D48" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B48,'Product Backlog'!$E$3:$H$190,4,FALSE),"")</f>
-        <v/>
+      <c r="B48" s="58">
+        <v>12.01</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="D48" s="51">
+        <v>1</v>
       </c>
       <c r="E48" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="F48" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G48" s="61" t="s">
-        <v>276</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="35"/>
       <c r="I48" s="55">
         <f>WORKDAY($D$3,(J48-1),Holidays!$C$5:$C$60)</f>
@@ -33383,7 +33402,7 @@
       </c>
       <c r="K48" s="62">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-39.200000000000003</v>
       </c>
       <c r="L48" s="77">
         <f t="shared" si="1"/>
@@ -33391,11 +33410,11 @@
       </c>
       <c r="M48" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N48" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O48" s="77">
         <f t="shared" si="4"/>
@@ -33403,21 +33422,21 @@
       </c>
       <c r="P48" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15" customHeight="1">
-      <c r="B49" s="58"/>
-      <c r="C49" s="50" t="str">
-        <f>IFERROR(VLOOKUP(B49,'Product Backlog'!$E$3:$H$190,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D49" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B49,'Product Backlog'!$E$3:$H$190,4,FALSE),"")</f>
-        <v/>
+      <c r="B49" s="58">
+        <v>13.01</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" s="51">
+        <v>1.5</v>
       </c>
       <c r="E49" s="59" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F49" s="60" t="s">
         <v>276</v>
@@ -33436,7 +33455,7 @@
       </c>
       <c r="K49" s="62">
         <f t="shared" si="0"/>
-        <v>-30</v>
+        <v>-42</v>
       </c>
       <c r="L49" s="77">
         <f t="shared" si="1"/>
@@ -33444,11 +33463,11 @@
       </c>
       <c r="M49" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N49" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O49" s="77">
         <f t="shared" si="4"/>
@@ -33456,21 +33475,21 @@
       </c>
       <c r="P49" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="15" customHeight="1">
-      <c r="B50" s="58"/>
-      <c r="C50" s="50" t="str">
-        <f>IFERROR(VLOOKUP(B50,'Product Backlog'!$E$3:$H$190,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D50" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B50,'Product Backlog'!$E$3:$H$190,4,FALSE),"")</f>
-        <v/>
+      <c r="B50" s="58">
+        <v>14.01</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="D50" s="51">
+        <v>0.5</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F50" s="60" t="s">
         <v>276</v>
@@ -33489,7 +33508,7 @@
       </c>
       <c r="K50" s="62">
         <f t="shared" si="0"/>
-        <v>-32</v>
+        <v>-44.8</v>
       </c>
       <c r="L50" s="77">
         <f t="shared" si="1"/>
@@ -33497,11 +33516,11 @@
       </c>
       <c r="M50" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N50" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O50" s="77">
         <f t="shared" si="4"/>
@@ -33513,17 +33532,17 @@
       </c>
     </row>
     <row r="51" spans="2:16" ht="15" customHeight="1">
-      <c r="B51" s="58"/>
-      <c r="C51" s="50" t="str">
-        <f>IFERROR(VLOOKUP(B51,'Product Backlog'!$E$3:$H$190,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D51" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B51,'Product Backlog'!$E$3:$H$190,4,FALSE),"")</f>
-        <v/>
+      <c r="B51" s="58">
+        <v>15.01</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D51" s="51">
+        <v>0.5</v>
       </c>
       <c r="E51" s="59" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F51" s="60" t="s">
         <v>276</v>
@@ -33542,7 +33561,7 @@
       </c>
       <c r="K51" s="62">
         <f t="shared" si="0"/>
-        <v>-34</v>
+        <v>-47.6</v>
       </c>
       <c r="L51" s="77">
         <f t="shared" si="1"/>
@@ -33550,11 +33569,11 @@
       </c>
       <c r="M51" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N51" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O51" s="77">
         <f t="shared" si="4"/>
@@ -33566,17 +33585,17 @@
       </c>
     </row>
     <row r="52" spans="2:16" ht="15" customHeight="1">
-      <c r="B52" s="58"/>
-      <c r="C52" s="50" t="str">
-        <f>IFERROR(VLOOKUP(B52,'Product Backlog'!$E$3:$H$190,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D52" s="51" t="str">
-        <f>IFERROR(VLOOKUP(B52,'Product Backlog'!$E$3:$H$190,4,FALSE),"")</f>
-        <v/>
+      <c r="B52" s="58">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="D52" s="51">
+        <v>1.5</v>
       </c>
       <c r="E52" s="59" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F52" s="60" t="s">
         <v>276</v>
@@ -33595,7 +33614,7 @@
       </c>
       <c r="K52" s="62">
         <f t="shared" si="0"/>
-        <v>-36</v>
+        <v>-50.4</v>
       </c>
       <c r="L52" s="77">
         <f t="shared" si="1"/>
@@ -33603,11 +33622,11 @@
       </c>
       <c r="M52" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N52" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O52" s="77">
         <f t="shared" si="4"/>
@@ -33648,7 +33667,7 @@
       </c>
       <c r="K53" s="62">
         <f t="shared" si="0"/>
-        <v>-38</v>
+        <v>-53.2</v>
       </c>
       <c r="L53" s="77">
         <f t="shared" si="1"/>
@@ -33656,11 +33675,11 @@
       </c>
       <c r="M53" s="77">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="N53" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O53" s="77">
         <f t="shared" si="4"/>
@@ -34143,35 +34162,35 @@
   <dimension ref="A2:X101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.1328125" customWidth="1"/>
-    <col min="25" max="31" width="17.1328125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="25" max="31" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -36604,32 +36623,32 @@
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.1328125" customWidth="1"/>
-    <col min="25" max="31" width="17.1328125" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.140625" customWidth="1"/>
+    <col min="25" max="31" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -39038,10 +39057,10 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="22.1328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="16.149999999999999" customHeight="1"/>
@@ -39319,7 +39338,7 @@
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
     </row>
-    <row r="60" spans="2:3" ht="16.149999999999999" thickBot="1">
+    <row r="60" spans="2:3" ht="14.25" thickBot="1">
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
     </row>
@@ -39340,11 +39359,11 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.265625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.1328125" style="79" customWidth="1"/>
-    <col min="3" max="4" width="9.1328125" style="17"/>
+    <col min="1" max="1" width="7.28515625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="79" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="15" customHeight="1"/>

--- a/06.Brain_bdc.xlsx
+++ b/06.Brain_bdc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajouackr-my.sharepoint.com/personal/yw7148_ajou_ac_kr/Documents/4학년 2학기/프로젝트/Coding/Proccess/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yw714\Documents\danjinae\Proccess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_6FED4B0791B05FDFC7CF71F0AA16DDAB96C1BBF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2710531-164E-4981-9E21-8E89121C6E45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59F183-B0A6-4C6B-9CCC-9EC799C40A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="305">
   <si>
     <t>Story
 ID</t>
@@ -13944,85 +13944,85 @@
                   <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27.5</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14100,7 +14100,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20731,8 +20731,8 @@
   <dimension ref="B2:S190"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -31718,7 +31718,7 @@
   <dimension ref="A2:X101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -32127,7 +32127,7 @@
       </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="57">
-        <v>44508</v>
+        <v>44511</v>
       </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
@@ -32145,7 +32145,7 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="61"/>
@@ -32185,7 +32185,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="63">
         <f>NETWORKDAYS($D$3,$R$24,Holidays!$C$5:$C$60)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
@@ -32285,11 +32285,11 @@
       </c>
       <c r="M27" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>23</v>
       </c>
       <c r="N27" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="O27" s="77">
         <f t="shared" si="4"/>
@@ -32297,7 +32297,7 @@
       </c>
       <c r="P27" s="78">
         <f t="shared" si="5"/>
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="Q27" s="35"/>
       <c r="R27" s="35"/>
@@ -32317,7 +32317,7 @@
         <v>0.5</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="61"/>
@@ -32340,11 +32340,11 @@
       </c>
       <c r="M28" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N28" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O28" s="77">
         <f t="shared" si="4"/>
@@ -32352,7 +32352,7 @@
       </c>
       <c r="P28" s="78">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.44</v>
       </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
@@ -32395,11 +32395,11 @@
       </c>
       <c r="M29" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N29" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O29" s="77">
         <f t="shared" si="4"/>
@@ -32407,7 +32407,7 @@
       </c>
       <c r="P29" s="78">
         <f t="shared" si="5"/>
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
@@ -32427,10 +32427,14 @@
         <v>1</v>
       </c>
       <c r="E30" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F30" s="60">
+        <v>44510</v>
+      </c>
+      <c r="G30" s="61">
+        <v>1</v>
+      </c>
       <c r="H30" s="35"/>
       <c r="I30" s="55">
         <f>WORKDAY($D$3,(J30-1),Holidays!$C$5:$C$60)</f>
@@ -32450,11 +32454,11 @@
       </c>
       <c r="M30" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N30" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O30" s="77">
         <f t="shared" si="4"/>
@@ -32462,7 +32466,7 @@
       </c>
       <c r="P30" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
@@ -32505,11 +32509,11 @@
       </c>
       <c r="M31" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N31" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O31" s="77">
         <f t="shared" si="4"/>
@@ -32517,7 +32521,7 @@
       </c>
       <c r="P31" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
@@ -32560,11 +32564,11 @@
       </c>
       <c r="M32" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N32" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O32" s="77">
         <f t="shared" si="4"/>
@@ -32572,7 +32576,7 @@
       </c>
       <c r="P32" s="78">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
@@ -32615,11 +32619,11 @@
       </c>
       <c r="M33" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N33" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O33" s="77">
         <f t="shared" si="4"/>
@@ -32627,7 +32631,7 @@
       </c>
       <c r="P33" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
@@ -32670,11 +32674,11 @@
       </c>
       <c r="M34" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N34" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O34" s="77">
         <f t="shared" si="4"/>
@@ -32682,7 +32686,7 @@
       </c>
       <c r="P34" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
@@ -32725,11 +32729,11 @@
       </c>
       <c r="M35" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N35" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O35" s="77">
         <f t="shared" si="4"/>
@@ -32737,7 +32741,7 @@
       </c>
       <c r="P35" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
@@ -32757,10 +32761,14 @@
         <v>1</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F36" s="60">
+        <v>44510</v>
+      </c>
+      <c r="G36" s="61">
+        <v>1</v>
+      </c>
       <c r="H36" s="35"/>
       <c r="I36" s="55">
         <f>WORKDAY($D$3,(J36-1),Holidays!$C$5:$C$60)</f>
@@ -32780,11 +32788,11 @@
       </c>
       <c r="M36" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N36" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O36" s="77">
         <f t="shared" si="4"/>
@@ -32792,7 +32800,7 @@
       </c>
       <c r="P36" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
@@ -32835,11 +32843,11 @@
       </c>
       <c r="M37" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N37" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O37" s="77">
         <f t="shared" si="4"/>
@@ -32847,7 +32855,7 @@
       </c>
       <c r="P37" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
@@ -32889,11 +32897,11 @@
       </c>
       <c r="M38" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N38" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O38" s="77">
         <f t="shared" si="4"/>
@@ -32901,7 +32909,7 @@
       </c>
       <c r="P38" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="T38" s="35"/>
     </row>
@@ -32945,11 +32953,11 @@
       </c>
       <c r="M39" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N39" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O39" s="77">
         <f t="shared" si="4"/>
@@ -32957,7 +32965,7 @@
       </c>
       <c r="P39" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1">
@@ -32973,13 +32981,13 @@
         <v>1</v>
       </c>
       <c r="E40" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F40" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F40" s="60">
+        <v>44511</v>
+      </c>
+      <c r="G40" s="61">
+        <v>1</v>
       </c>
       <c r="H40" s="35"/>
       <c r="I40" s="55">
@@ -33000,11 +33008,11 @@
       </c>
       <c r="M40" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N40" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O40" s="77">
         <f t="shared" si="4"/>
@@ -33012,7 +33020,7 @@
       </c>
       <c r="P40" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="15" customHeight="1">
@@ -33055,11 +33063,11 @@
       </c>
       <c r="M41" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N41" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O41" s="77">
         <f t="shared" si="4"/>
@@ -33067,7 +33075,7 @@
       </c>
       <c r="P41" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="15" customHeight="1">
@@ -33110,11 +33118,11 @@
       </c>
       <c r="M42" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N42" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O42" s="77">
         <f t="shared" si="4"/>
@@ -33122,7 +33130,7 @@
       </c>
       <c r="P42" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="15" customHeight="1">
@@ -33165,11 +33173,11 @@
       </c>
       <c r="M43" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N43" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O43" s="77">
         <f t="shared" si="4"/>
@@ -33177,7 +33185,7 @@
       </c>
       <c r="P43" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="15" customHeight="1">
@@ -33214,11 +33222,11 @@
       </c>
       <c r="M44" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N44" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O44" s="77">
         <f t="shared" si="4"/>
@@ -33226,7 +33234,7 @@
       </c>
       <c r="P44" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="15" customHeight="1">
@@ -33240,10 +33248,14 @@
         <v>1.5</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F45" s="60">
+        <v>44510</v>
+      </c>
+      <c r="G45" s="61">
+        <v>1.5</v>
+      </c>
       <c r="H45" s="35"/>
       <c r="I45" s="55">
         <f>WORKDAY($D$3,(J45-1),Holidays!$C$5:$C$60)</f>
@@ -33263,11 +33275,11 @@
       </c>
       <c r="M45" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N45" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O45" s="77">
         <f t="shared" si="4"/>
@@ -33275,7 +33287,7 @@
       </c>
       <c r="P45" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1">
@@ -33289,10 +33301,14 @@
         <v>0.5</v>
       </c>
       <c r="E46" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F46" s="60">
+        <v>44511</v>
+      </c>
+      <c r="G46" s="61">
+        <v>1</v>
+      </c>
       <c r="H46" s="35"/>
       <c r="I46" s="55">
         <f>WORKDAY($D$3,(J46-1),Holidays!$C$5:$C$60)</f>
@@ -33312,11 +33328,11 @@
       </c>
       <c r="M46" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N46" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O46" s="77">
         <f t="shared" si="4"/>
@@ -33324,7 +33340,7 @@
       </c>
       <c r="P46" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="15" customHeight="1">
@@ -33361,11 +33377,11 @@
       </c>
       <c r="M47" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N47" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O47" s="77">
         <f t="shared" si="4"/>
@@ -33373,7 +33389,7 @@
       </c>
       <c r="P47" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="15" customHeight="1">
@@ -33410,11 +33426,11 @@
       </c>
       <c r="M48" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N48" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O48" s="77">
         <f t="shared" si="4"/>
@@ -33422,7 +33438,7 @@
       </c>
       <c r="P48" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15" customHeight="1">
@@ -33463,11 +33479,11 @@
       </c>
       <c r="M49" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N49" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O49" s="77">
         <f t="shared" si="4"/>
@@ -33475,7 +33491,7 @@
       </c>
       <c r="P49" s="78">
         <f t="shared" si="5"/>
-        <v>0.01</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="15" customHeight="1">
@@ -33489,13 +33505,13 @@
         <v>0.5</v>
       </c>
       <c r="E50" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F50" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G50" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F50" s="60">
+        <v>44510</v>
+      </c>
+      <c r="G50" s="61">
+        <v>1</v>
       </c>
       <c r="H50" s="35"/>
       <c r="I50" s="55">
@@ -33516,11 +33532,11 @@
       </c>
       <c r="M50" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N50" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O50" s="77">
         <f t="shared" si="4"/>
@@ -33528,7 +33544,7 @@
       </c>
       <c r="P50" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="15" customHeight="1">
@@ -33542,7 +33558,7 @@
         <v>0.5</v>
       </c>
       <c r="E51" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F51" s="60" t="s">
         <v>276</v>
@@ -33569,11 +33585,11 @@
       </c>
       <c r="M51" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N51" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O51" s="77">
         <f t="shared" si="4"/>
@@ -33581,7 +33597,7 @@
       </c>
       <c r="P51" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="15" customHeight="1">
@@ -33622,11 +33638,11 @@
       </c>
       <c r="M52" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N52" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O52" s="77">
         <f t="shared" si="4"/>
@@ -33634,7 +33650,7 @@
       </c>
       <c r="P52" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1">
@@ -33675,11 +33691,11 @@
       </c>
       <c r="M53" s="77">
         <f t="shared" si="2"/>
-        <v>27.5</v>
+        <v>21</v>
       </c>
       <c r="N53" s="77">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>7</v>
       </c>
       <c r="O53" s="77">
         <f t="shared" si="4"/>
@@ -33687,7 +33703,7 @@
       </c>
       <c r="P53" s="78">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="15" customHeight="1">

--- a/06.Brain_bdc.xlsx
+++ b/06.Brain_bdc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yw714\Documents\danjinae\Proccess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A59F183-B0A6-4C6B-9CCC-9EC799C40A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1E01C6-4BC0-4229-A7F5-ACDF3ABE9650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20731,8 +20731,8 @@
   <dimension ref="B2:S190"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G56" sqref="G56"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -22305,7 +22305,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="15" customHeight="1">
@@ -22497,7 +22497,7 @@
         <v>0.5</v>
       </c>
       <c r="I80" s="98" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="2:9" ht="15" customHeight="1">
@@ -22625,7 +22625,7 @@
         <v>0.5</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="15" customHeight="1">
@@ -31717,8 +31717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>

--- a/06.Brain_bdc.xlsx
+++ b/06.Brain_bdc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yw714\Documents\danjinae\Proccess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yw714\Documents\Danjinae\Proccess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1E01C6-4BC0-4229-A7F5-ACDF3ABE9650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D811D44-CA7E-467E-9592-3CDAEBB9A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="305">
   <si>
     <t>Story
 ID</t>
@@ -13947,82 +13947,82 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14100,7 +14100,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20731,22 +20731,22 @@
   <dimension ref="B2:S190"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="62.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="15" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="4" customWidth="1"/>
-    <col min="10" max="19" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.1328125" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="65.73046875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.73046875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="26.73046875" customWidth="1"/>
+    <col min="7" max="7" width="62.73046875" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" style="4" customWidth="1"/>
+    <col min="10" max="19" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" s="2" customFormat="1" ht="40.5" customHeight="1">
@@ -24234,32 +24234,32 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -26696,32 +26696,32 @@
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -29146,32 +29146,32 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -31717,36 +31717,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -32127,7 +32127,7 @@
       </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="57">
-        <v>44511</v>
+        <v>44515</v>
       </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
@@ -32185,7 +32185,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="63">
         <f>NETWORKDAYS($D$3,$R$24,Holidays!$C$5:$C$60)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
@@ -32317,10 +32317,14 @@
         <v>0.5</v>
       </c>
       <c r="E28" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F28" s="60">
+        <v>44512</v>
+      </c>
+      <c r="G28" s="61">
+        <v>0.5</v>
+      </c>
       <c r="H28" s="35"/>
       <c r="I28" s="55">
         <f>WORKDAY($D$3,(J28-1),Holidays!$C$5:$C$60)</f>
@@ -32340,11 +32344,11 @@
       </c>
       <c r="M28" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="N28" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O28" s="77">
         <f t="shared" si="4"/>
@@ -32352,7 +32356,7 @@
       </c>
       <c r="P28" s="78">
         <f t="shared" si="5"/>
-        <v>0.44</v>
+        <v>0.47</v>
       </c>
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
@@ -32395,11 +32399,11 @@
       </c>
       <c r="M29" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="N29" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O29" s="77">
         <f t="shared" si="4"/>
@@ -32407,7 +32411,7 @@
       </c>
       <c r="P29" s="78">
         <f t="shared" si="5"/>
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
@@ -32454,11 +32458,11 @@
       </c>
       <c r="M30" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N30" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O30" s="77">
         <f t="shared" si="4"/>
@@ -32466,7 +32470,7 @@
       </c>
       <c r="P30" s="78">
         <f t="shared" si="5"/>
-        <v>0.28999999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
@@ -32509,11 +32513,11 @@
       </c>
       <c r="M31" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N31" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O31" s="77">
         <f t="shared" si="4"/>
@@ -32521,7 +32525,7 @@
       </c>
       <c r="P31" s="78">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
@@ -32541,10 +32545,14 @@
         <v>1</v>
       </c>
       <c r="E32" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F32" s="60">
+        <v>44515</v>
+      </c>
+      <c r="G32" s="61">
+        <v>1</v>
+      </c>
       <c r="H32" s="35"/>
       <c r="I32" s="55">
         <f>WORKDAY($D$3,(J32-1),Holidays!$C$5:$C$60)</f>
@@ -32564,11 +32572,11 @@
       </c>
       <c r="M32" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N32" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O32" s="77">
         <f t="shared" si="4"/>
@@ -32576,7 +32584,7 @@
       </c>
       <c r="P32" s="78">
         <f t="shared" si="5"/>
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
@@ -32619,11 +32627,11 @@
       </c>
       <c r="M33" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N33" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O33" s="77">
         <f t="shared" si="4"/>
@@ -32631,7 +32639,7 @@
       </c>
       <c r="P33" s="78">
         <f t="shared" si="5"/>
-        <v>0.19</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
@@ -32674,11 +32682,11 @@
       </c>
       <c r="M34" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N34" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O34" s="77">
         <f t="shared" si="4"/>
@@ -32686,7 +32694,7 @@
       </c>
       <c r="P34" s="78">
         <f t="shared" si="5"/>
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
@@ -32729,11 +32737,11 @@
       </c>
       <c r="M35" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N35" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O35" s="77">
         <f t="shared" si="4"/>
@@ -32741,7 +32749,7 @@
       </c>
       <c r="P35" s="78">
         <f t="shared" si="5"/>
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
@@ -32788,11 +32796,11 @@
       </c>
       <c r="M36" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N36" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O36" s="77">
         <f t="shared" si="4"/>
@@ -32800,7 +32808,7 @@
       </c>
       <c r="P36" s="78">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
@@ -32820,7 +32828,7 @@
         <v>0.5</v>
       </c>
       <c r="E37" s="59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="61"/>
@@ -32843,11 +32851,11 @@
       </c>
       <c r="M37" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N37" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O37" s="77">
         <f t="shared" si="4"/>
@@ -32855,7 +32863,7 @@
       </c>
       <c r="P37" s="78">
         <f t="shared" si="5"/>
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
@@ -32874,10 +32882,14 @@
         <v>0.5</v>
       </c>
       <c r="E38" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F38" s="60">
+        <v>44511</v>
+      </c>
+      <c r="G38" s="61">
+        <v>0.5</v>
+      </c>
       <c r="H38" s="35"/>
       <c r="I38" s="55">
         <f>WORKDAY($D$3,(J38-1),Holidays!$C$5:$C$60)</f>
@@ -32897,11 +32909,11 @@
       </c>
       <c r="M38" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N38" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O38" s="77">
         <f t="shared" si="4"/>
@@ -32909,7 +32921,7 @@
       </c>
       <c r="P38" s="78">
         <f t="shared" si="5"/>
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="T38" s="35"/>
     </row>
@@ -32953,11 +32965,11 @@
       </c>
       <c r="M39" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N39" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O39" s="77">
         <f t="shared" si="4"/>
@@ -32965,7 +32977,7 @@
       </c>
       <c r="P39" s="78">
         <f t="shared" si="5"/>
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1">
@@ -33008,11 +33020,11 @@
       </c>
       <c r="M40" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N40" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O40" s="77">
         <f t="shared" si="4"/>
@@ -33020,7 +33032,7 @@
       </c>
       <c r="P40" s="78">
         <f t="shared" si="5"/>
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="15" customHeight="1">
@@ -33063,11 +33075,11 @@
       </c>
       <c r="M41" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N41" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O41" s="77">
         <f t="shared" si="4"/>
@@ -33075,7 +33087,7 @@
       </c>
       <c r="P41" s="78">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="15" customHeight="1">
@@ -33091,13 +33103,13 @@
         <v>0.5</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F42" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F42" s="60">
+        <v>44512</v>
+      </c>
+      <c r="G42" s="61">
+        <v>0.5</v>
       </c>
       <c r="H42" s="35"/>
       <c r="I42" s="55">
@@ -33118,11 +33130,11 @@
       </c>
       <c r="M42" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N42" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O42" s="77">
         <f t="shared" si="4"/>
@@ -33130,7 +33142,7 @@
       </c>
       <c r="P42" s="78">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="15" customHeight="1">
@@ -33146,13 +33158,13 @@
         <v>1</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F43" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G43" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F43" s="60">
+        <v>44512</v>
+      </c>
+      <c r="G43" s="61">
+        <v>1</v>
       </c>
       <c r="H43" s="35"/>
       <c r="I43" s="55">
@@ -33173,11 +33185,11 @@
       </c>
       <c r="M43" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N43" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O43" s="77">
         <f t="shared" si="4"/>
@@ -33185,7 +33197,7 @@
       </c>
       <c r="P43" s="78">
         <f t="shared" si="5"/>
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="15" customHeight="1">
@@ -33222,11 +33234,11 @@
       </c>
       <c r="M44" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N44" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O44" s="77">
         <f t="shared" si="4"/>
@@ -33234,7 +33246,7 @@
       </c>
       <c r="P44" s="78">
         <f t="shared" si="5"/>
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="15" customHeight="1">
@@ -33275,11 +33287,11 @@
       </c>
       <c r="M45" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N45" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O45" s="77">
         <f t="shared" si="4"/>
@@ -33287,7 +33299,7 @@
       </c>
       <c r="P45" s="78">
         <f t="shared" si="5"/>
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1">
@@ -33328,11 +33340,11 @@
       </c>
       <c r="M46" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N46" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O46" s="77">
         <f t="shared" si="4"/>
@@ -33340,7 +33352,7 @@
       </c>
       <c r="P46" s="78">
         <f t="shared" si="5"/>
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="15" customHeight="1">
@@ -33377,11 +33389,11 @@
       </c>
       <c r="M47" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N47" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O47" s="77">
         <f t="shared" si="4"/>
@@ -33389,7 +33401,7 @@
       </c>
       <c r="P47" s="78">
         <f t="shared" si="5"/>
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="15" customHeight="1">
@@ -33426,11 +33438,11 @@
       </c>
       <c r="M48" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N48" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O48" s="77">
         <f t="shared" si="4"/>
@@ -33438,7 +33450,7 @@
       </c>
       <c r="P48" s="78">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15" customHeight="1">
@@ -33479,11 +33491,11 @@
       </c>
       <c r="M49" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N49" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O49" s="77">
         <f t="shared" si="4"/>
@@ -33491,7 +33503,7 @@
       </c>
       <c r="P49" s="78">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="15" customHeight="1">
@@ -33532,11 +33544,11 @@
       </c>
       <c r="M50" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N50" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O50" s="77">
         <f t="shared" si="4"/>
@@ -33544,7 +33556,7 @@
       </c>
       <c r="P50" s="78">
         <f t="shared" si="5"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="15" customHeight="1">
@@ -33585,11 +33597,11 @@
       </c>
       <c r="M51" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N51" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O51" s="77">
         <f t="shared" si="4"/>
@@ -33597,7 +33609,7 @@
       </c>
       <c r="P51" s="78">
         <f t="shared" si="5"/>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="15" customHeight="1">
@@ -33638,11 +33650,11 @@
       </c>
       <c r="M52" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N52" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O52" s="77">
         <f t="shared" si="4"/>
@@ -33650,7 +33662,7 @@
       </c>
       <c r="P52" s="78">
         <f t="shared" si="5"/>
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1">
@@ -33691,11 +33703,11 @@
       </c>
       <c r="M53" s="77">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="N53" s="77">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="O53" s="77">
         <f t="shared" si="4"/>
@@ -33703,7 +33715,7 @@
       </c>
       <c r="P53" s="78">
         <f t="shared" si="5"/>
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="15" customHeight="1">
@@ -34181,32 +34193,32 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -36639,32 +36651,32 @@
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="17" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="17" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="7.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="12.3984375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="4.265625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="12.265625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.86328125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="17" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="17" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" style="17" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="8.1328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="4.86328125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" style="17" customWidth="1"/>
+    <col min="19" max="19" width="5.73046875" style="17" customWidth="1"/>
+    <col min="20" max="20" width="18.59765625" style="17" customWidth="1"/>
+    <col min="21" max="21" width="5.3984375" style="17" customWidth="1"/>
     <col min="22" max="22" width="3" style="17" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" customWidth="1"/>
-    <col min="25" max="31" width="17.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.265625" style="17" customWidth="1"/>
+    <col min="24" max="24" width="23.1328125" customWidth="1"/>
+    <col min="25" max="31" width="17.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" s="4" customFormat="1" ht="26.45" customHeight="1">
@@ -39073,10 +39085,10 @@
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="22.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="16.149999999999999" customHeight="1"/>
@@ -39354,7 +39366,7 @@
       <c r="B59" s="23"/>
       <c r="C59" s="24"/>
     </row>
-    <row r="60" spans="2:3" ht="14.25" thickBot="1">
+    <row r="60" spans="2:3" ht="16.149999999999999" thickBot="1">
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
     </row>
@@ -39375,11 +39387,11 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="79" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="17"/>
+    <col min="1" max="1" width="7.265625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" style="79" customWidth="1"/>
+    <col min="3" max="4" width="9.1328125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2" ht="15" customHeight="1"/>

--- a/06.Brain_bdc.xlsx
+++ b/06.Brain_bdc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yw714\Documents\Danjinae\Proccess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D811D44-CA7E-467E-9592-3CDAEBB9A34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE8999D-7AD6-40F1-804A-B7121E1A092F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="305">
   <si>
     <t>Story
 ID</t>
@@ -13953,76 +13953,76 @@
                   <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.5</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>17.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14100,7 +14100,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20731,8 +20731,8 @@
   <dimension ref="B2:S190"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F86" sqref="F86"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
@@ -31717,8 +31717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:X101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1"/>
@@ -32089,7 +32089,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F24" s="53"/>
       <c r="G24" s="54"/>
@@ -32127,7 +32127,7 @@
       </c>
       <c r="Q24" s="35"/>
       <c r="R24" s="57">
-        <v>44515</v>
+        <v>44518</v>
       </c>
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
@@ -32185,7 +32185,7 @@
       <c r="Q25" s="35"/>
       <c r="R25" s="63">
         <f>NETWORKDAYS($D$3,$R$24,Holidays!$C$5:$C$60)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
@@ -32376,10 +32376,14 @@
         <v>1.5</v>
       </c>
       <c r="E29" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F29" s="60">
+        <v>44517</v>
+      </c>
+      <c r="G29" s="61">
+        <v>1.5</v>
+      </c>
       <c r="H29" s="35"/>
       <c r="I29" s="55">
         <f>WORKDAY($D$3,(J29-1),Holidays!$C$5:$C$60)</f>
@@ -32458,11 +32462,11 @@
       </c>
       <c r="M30" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="N30" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O30" s="77">
         <f t="shared" si="4"/>
@@ -32470,7 +32474,7 @@
       </c>
       <c r="P30" s="78">
         <f t="shared" si="5"/>
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
@@ -32490,10 +32494,14 @@
         <v>1.5</v>
       </c>
       <c r="E31" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F31" s="60">
+        <v>44516</v>
+      </c>
+      <c r="G31" s="61">
+        <v>1</v>
+      </c>
       <c r="H31" s="35"/>
       <c r="I31" s="55">
         <f>WORKDAY($D$3,(J31-1),Holidays!$C$5:$C$60)</f>
@@ -32513,11 +32521,11 @@
       </c>
       <c r="M31" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="N31" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="O31" s="77">
         <f t="shared" si="4"/>
@@ -32525,7 +32533,7 @@
       </c>
       <c r="P31" s="78">
         <f t="shared" si="5"/>
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
@@ -32572,11 +32580,11 @@
       </c>
       <c r="M32" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N32" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O32" s="77">
         <f t="shared" si="4"/>
@@ -32584,7 +32592,7 @@
       </c>
       <c r="P32" s="78">
         <f t="shared" si="5"/>
-        <v>0.33</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q32" s="35"/>
       <c r="R32" s="35"/>
@@ -32627,11 +32635,11 @@
       </c>
       <c r="M33" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N33" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O33" s="77">
         <f t="shared" si="4"/>
@@ -32639,7 +32647,7 @@
       </c>
       <c r="P33" s="78">
         <f t="shared" si="5"/>
-        <v>0.28999999999999998</v>
+        <v>0.49</v>
       </c>
       <c r="Q33" s="35"/>
       <c r="R33" s="35"/>
@@ -32659,10 +32667,14 @@
         <v>1</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F34" s="60">
+        <v>44516</v>
+      </c>
+      <c r="G34" s="61">
+        <v>1</v>
+      </c>
       <c r="H34" s="35"/>
       <c r="I34" s="55">
         <f>WORKDAY($D$3,(J34-1),Holidays!$C$5:$C$60)</f>
@@ -32682,11 +32694,11 @@
       </c>
       <c r="M34" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N34" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O34" s="77">
         <f t="shared" si="4"/>
@@ -32694,7 +32706,7 @@
       </c>
       <c r="P34" s="78">
         <f t="shared" si="5"/>
-        <v>0.26</v>
+        <v>0.44</v>
       </c>
       <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
@@ -32737,11 +32749,11 @@
       </c>
       <c r="M35" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N35" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O35" s="77">
         <f t="shared" si="4"/>
@@ -32749,7 +32761,7 @@
       </c>
       <c r="P35" s="78">
         <f t="shared" si="5"/>
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="Q35" s="35"/>
       <c r="R35" s="35"/>
@@ -32796,11 +32808,11 @@
       </c>
       <c r="M36" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N36" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O36" s="77">
         <f t="shared" si="4"/>
@@ -32808,7 +32820,7 @@
       </c>
       <c r="P36" s="78">
         <f t="shared" si="5"/>
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="Q36" s="35"/>
       <c r="R36" s="35"/>
@@ -32851,11 +32863,11 @@
       </c>
       <c r="M37" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N37" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O37" s="77">
         <f t="shared" si="4"/>
@@ -32863,7 +32875,7 @@
       </c>
       <c r="P37" s="78">
         <f t="shared" si="5"/>
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
@@ -32909,11 +32921,11 @@
       </c>
       <c r="M38" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N38" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O38" s="77">
         <f t="shared" si="4"/>
@@ -32921,7 +32933,7 @@
       </c>
       <c r="P38" s="78">
         <f t="shared" si="5"/>
-        <v>0.19</v>
+        <v>0.31</v>
       </c>
       <c r="T38" s="35"/>
     </row>
@@ -32965,11 +32977,11 @@
       </c>
       <c r="M39" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N39" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O39" s="77">
         <f t="shared" si="4"/>
@@ -32977,7 +32989,7 @@
       </c>
       <c r="P39" s="78">
         <f t="shared" si="5"/>
-        <v>0.18</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1">
@@ -33020,11 +33032,11 @@
       </c>
       <c r="M40" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N40" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O40" s="77">
         <f t="shared" si="4"/>
@@ -33032,7 +33044,7 @@
       </c>
       <c r="P40" s="78">
         <f t="shared" si="5"/>
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="15" customHeight="1">
@@ -33048,13 +33060,13 @@
         <v>1</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F41" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G41" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F41" s="60">
+        <v>44516</v>
+      </c>
+      <c r="G41" s="61">
+        <v>1</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="55">
@@ -33075,11 +33087,11 @@
       </c>
       <c r="M41" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N41" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O41" s="77">
         <f t="shared" si="4"/>
@@ -33087,7 +33099,7 @@
       </c>
       <c r="P41" s="78">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="42" spans="2:20" ht="15" customHeight="1">
@@ -33130,11 +33142,11 @@
       </c>
       <c r="M42" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N42" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O42" s="77">
         <f t="shared" si="4"/>
@@ -33142,7 +33154,7 @@
       </c>
       <c r="P42" s="78">
         <f t="shared" si="5"/>
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="43" spans="2:20" ht="15" customHeight="1">
@@ -33185,11 +33197,11 @@
       </c>
       <c r="M43" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N43" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O43" s="77">
         <f t="shared" si="4"/>
@@ -33197,7 +33209,7 @@
       </c>
       <c r="P43" s="78">
         <f t="shared" si="5"/>
-        <v>0.14000000000000001</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="44" spans="2:20" ht="15" customHeight="1">
@@ -33234,11 +33246,11 @@
       </c>
       <c r="M44" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N44" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O44" s="77">
         <f t="shared" si="4"/>
@@ -33246,7 +33258,7 @@
       </c>
       <c r="P44" s="78">
         <f t="shared" si="5"/>
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="45" spans="2:20" ht="15" customHeight="1">
@@ -33287,11 +33299,11 @@
       </c>
       <c r="M45" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N45" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O45" s="77">
         <f t="shared" si="4"/>
@@ -33299,7 +33311,7 @@
       </c>
       <c r="P45" s="78">
         <f t="shared" si="5"/>
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="46" spans="2:20" ht="15" customHeight="1">
@@ -33340,11 +33352,11 @@
       </c>
       <c r="M46" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N46" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O46" s="77">
         <f t="shared" si="4"/>
@@ -33352,7 +33364,7 @@
       </c>
       <c r="P46" s="78">
         <f t="shared" si="5"/>
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="15" customHeight="1">
@@ -33366,10 +33378,14 @@
         <v>1</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F47" s="60">
+        <v>44516</v>
+      </c>
+      <c r="G47" s="61">
+        <v>1</v>
+      </c>
       <c r="H47" s="35"/>
       <c r="I47" s="55">
         <f>WORKDAY($D$3,(J47-1),Holidays!$C$5:$C$60)</f>
@@ -33389,11 +33405,11 @@
       </c>
       <c r="M47" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N47" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O47" s="77">
         <f t="shared" si="4"/>
@@ -33401,7 +33417,7 @@
       </c>
       <c r="P47" s="78">
         <f t="shared" si="5"/>
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="15" customHeight="1">
@@ -33415,10 +33431,14 @@
         <v>1</v>
       </c>
       <c r="E48" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
+        <v>275</v>
+      </c>
+      <c r="F48" s="60">
+        <v>44517</v>
+      </c>
+      <c r="G48" s="61">
+        <v>1</v>
+      </c>
       <c r="H48" s="35"/>
       <c r="I48" s="55">
         <f>WORKDAY($D$3,(J48-1),Holidays!$C$5:$C$60)</f>
@@ -33438,11 +33458,11 @@
       </c>
       <c r="M48" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N48" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O48" s="77">
         <f t="shared" si="4"/>
@@ -33450,7 +33470,7 @@
       </c>
       <c r="P48" s="78">
         <f t="shared" si="5"/>
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15" customHeight="1">
@@ -33491,11 +33511,11 @@
       </c>
       <c r="M49" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N49" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O49" s="77">
         <f t="shared" si="4"/>
@@ -33503,7 +33523,7 @@
       </c>
       <c r="P49" s="78">
         <f t="shared" si="5"/>
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="15" customHeight="1">
@@ -33544,11 +33564,11 @@
       </c>
       <c r="M50" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N50" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O50" s="77">
         <f t="shared" si="4"/>
@@ -33556,7 +33576,7 @@
       </c>
       <c r="P50" s="78">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="15" customHeight="1">
@@ -33570,13 +33590,13 @@
         <v>0.5</v>
       </c>
       <c r="E51" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F51" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="G51" s="61" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="F51" s="60">
+        <v>44515</v>
+      </c>
+      <c r="G51" s="61">
+        <v>0.5</v>
       </c>
       <c r="H51" s="35"/>
       <c r="I51" s="55">
@@ -33597,11 +33617,11 @@
       </c>
       <c r="M51" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N51" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O51" s="77">
         <f t="shared" si="4"/>
@@ -33609,7 +33629,7 @@
       </c>
       <c r="P51" s="78">
         <f t="shared" si="5"/>
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="15" customHeight="1">
@@ -33650,11 +33670,11 @@
       </c>
       <c r="M52" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N52" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O52" s="77">
         <f t="shared" si="4"/>
@@ -33662,7 +33682,7 @@
       </c>
       <c r="P52" s="78">
         <f t="shared" si="5"/>
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1">
@@ -33703,11 +33723,11 @@
       </c>
       <c r="M53" s="77">
         <f t="shared" si="2"/>
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="N53" s="77">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="O53" s="77">
         <f t="shared" si="4"/>
@@ -33715,7 +33735,7 @@
       </c>
       <c r="P53" s="78">
         <f t="shared" si="5"/>
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="15" customHeight="1">
